--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.577</v>
+        <v>-0.299</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.815</v>
+        <v>-1.299</v>
       </c>
       <c r="D4" t="n">
-        <v>9.24</v>
+        <v>334.45</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.138</v>
+        <v>0.013</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.198</v>
+        <v>0.11</v>
       </c>
       <c r="D5" t="n">
-        <v>43.48</v>
+        <v>746.15</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.383</v>
+        <v>3.803</v>
       </c>
       <c r="C6" t="n">
-        <v>12.14</v>
+        <v>6.733</v>
       </c>
       <c r="D6" t="n">
-        <v>6.65</v>
+        <v>77.04000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.764</v>
+        <v>0.229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.448</v>
       </c>
       <c r="D7" t="n">
-        <v>7.07</v>
+        <v>95.63</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.132</v>
+        <v>13.723</v>
       </c>
       <c r="C8" t="n">
-        <v>23.055</v>
+        <v>14.597</v>
       </c>
       <c r="D8" t="n">
-        <v>4.17</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.757</v>
+        <v>2.636</v>
       </c>
       <c r="C9" t="n">
-        <v>10.368</v>
+        <v>6.172</v>
       </c>
       <c r="D9" t="n">
-        <v>6.26</v>
+        <v>134.14</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.782</v>
+        <v>27.709</v>
       </c>
       <c r="C10" t="n">
-        <v>167.592</v>
+        <v>58.394</v>
       </c>
       <c r="D10" t="n">
-        <v>12.64</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.793</v>
+        <v>0.116</v>
       </c>
       <c r="C11" t="n">
-        <v>2.485</v>
+        <v>0.37</v>
       </c>
       <c r="D11" t="n">
-        <v>38.59</v>
+        <v>218.97</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.816</v>
+        <v>-0.888</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.930999999999999</v>
+        <v>-2.978</v>
       </c>
       <c r="D12" t="n">
-        <v>14.27</v>
+        <v>235.36</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.198</v>
+        <v>5.264</v>
       </c>
       <c r="C13" t="n">
-        <v>12.946</v>
+        <v>7.642</v>
       </c>
       <c r="D13" t="n">
-        <v>6.13</v>
+        <v>45.17</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.091820016503334</v>
+        <v>5.892341363997686</v>
       </c>
       <c r="C4" t="n">
-        <v>4.492345958948135</v>
+        <v>5.806287334078834</v>
       </c>
       <c r="D4" t="n">
-        <v>9.789999999999999</v>
+        <v>-1.46</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3117611923529321</v>
+        <v>1.559072142718099</v>
       </c>
       <c r="F4" t="n">
-        <v>1.127906788694391</v>
+        <v>1.182881707810796</v>
       </c>
       <c r="G4" t="n">
-        <v>261.79</v>
+        <v>-24.13</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.552611407267488</v>
+        <v>3.63696885186436</v>
       </c>
       <c r="C6" t="n">
-        <v>3.960602875196619</v>
+        <v>3.514866147061741</v>
       </c>
       <c r="D6" t="n">
-        <v>11.48</v>
+        <v>-3.36</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5634560221422822</v>
+        <v>0.8233939899665373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4421259935779363</v>
+        <v>0.6264081516004534</v>
       </c>
       <c r="G6" t="n">
-        <v>-21.53</v>
+        <v>-23.92</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.299</v>
+        <v>-0.024</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.299</v>
+        <v>-0.49</v>
       </c>
       <c r="D4" t="n">
-        <v>334.45</v>
+        <v>1941.67</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.013</v>
+        <v>-0.004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.11</v>
+        <v>-0.027</v>
       </c>
       <c r="D5" t="n">
-        <v>746.15</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.803</v>
+        <v>2.741</v>
       </c>
       <c r="C6" t="n">
-        <v>6.733</v>
+        <v>3.987</v>
       </c>
       <c r="D6" t="n">
-        <v>77.04000000000001</v>
+        <v>45.46</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.229</v>
+        <v>0.202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.448</v>
+        <v>0.249</v>
       </c>
       <c r="D7" t="n">
-        <v>95.63</v>
+        <v>23.27</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.723</v>
+        <v>10.435</v>
       </c>
       <c r="C8" t="n">
-        <v>14.597</v>
+        <v>14.298</v>
       </c>
       <c r="D8" t="n">
-        <v>6.37</v>
+        <v>37.02</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.636</v>
+        <v>2.406</v>
       </c>
       <c r="C9" t="n">
-        <v>6.172</v>
+        <v>3.329</v>
       </c>
       <c r="D9" t="n">
-        <v>134.14</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.709</v>
+        <v>11.873</v>
       </c>
       <c r="C10" t="n">
-        <v>58.394</v>
+        <v>27.855</v>
       </c>
       <c r="D10" t="n">
-        <v>110.74</v>
+        <v>134.61</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.116</v>
+        <v>0.048</v>
       </c>
       <c r="C11" t="n">
-        <v>0.37</v>
+        <v>0.132</v>
       </c>
       <c r="D11" t="n">
-        <v>218.97</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.888</v>
+        <v>-0.004</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.978</v>
+        <v>-1.356</v>
       </c>
       <c r="D12" t="n">
-        <v>235.36</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.264</v>
+        <v>3.446</v>
       </c>
       <c r="C13" t="n">
-        <v>7.642</v>
+        <v>5.278</v>
       </c>
       <c r="D13" t="n">
-        <v>45.17</v>
+        <v>53.16</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.892341363997686</v>
+        <v>4.342788548696609</v>
       </c>
       <c r="C4" t="n">
-        <v>5.806287334078834</v>
+        <v>4.345188566616604</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.46</v>
+        <v>0.06</v>
       </c>
       <c r="E4" t="n">
-        <v>1.559072142718099</v>
+        <v>0.5501802906988583</v>
       </c>
       <c r="F4" t="n">
-        <v>1.182881707810796</v>
+        <v>0.8781046671699789</v>
       </c>
       <c r="G4" t="n">
-        <v>-24.13</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434</v>
+        <v>0.591</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.14</v>
+        <v>-72.15000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.63696885186436</v>
+        <v>2.384419505662605</v>
       </c>
       <c r="C6" t="n">
-        <v>3.514866147061741</v>
+        <v>2.362897672238964</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.36</v>
+        <v>-0.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8233939899665373</v>
+        <v>0.3468003549964713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6264081516004534</v>
+        <v>0.4143936681146717</v>
       </c>
       <c r="G6" t="n">
-        <v>-23.92</v>
+        <v>19.49</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
